--- a/Guild Digital/Example CHT application/forms/app/supplies_materials.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/supplies_materials.xlsx
@@ -306,7 +306,7 @@
     <t xml:space="preserve">path</t>
   </si>
   <si>
-    <t xml:space="preserve">Supplies and Materials Form</t>
+    <t xml:space="preserve">Supplies and Materials</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -327,7 +327,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -349,34 +348,29 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF111111"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -546,10 +540,15 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="140.37"/>
+  </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -707,7 +706,7 @@
       </c>
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="2" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1026,7 +1025,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="21" s="2" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1060,7 +1059,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" s="2" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1135,7 +1134,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" s="2" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -1170,7 +1169,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" s="2" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -1302,7 +1301,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1661,7 +1660,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
@@ -1709,7 +1708,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-09-19  21-29</v>
+        <v>2023-12-02  15-25</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>95</v>
